--- a/certificates and licenses/Control/Control.xlsx
+++ b/certificates and licenses/Control/Control.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/licenses-and-certificates/Certificates/New control/Table control/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/licenses-and-certificates/certificates and licenses/Control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17C82F78-1E1E-42EF-A16A-59B5A2C8D557}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AAD4F67-E2E4-4978-BE7C-FF1F63E6A982}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="101">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -326,6 +326,21 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/b9572da4-2224-4da1-b262-0931eb2c7d84</t>
+  </si>
+  <si>
+    <t>Aws</t>
+  </si>
+  <si>
+    <t>Governança de Dados</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/MVxqobEMGb9Dp9LW6</t>
+  </si>
+  <si>
+    <t>AWS Certified Cloud Practitioner</t>
+  </si>
+  <si>
+    <t>https://www.credly.com/badges/38cdec31-4934-47a5-8da4-a51b01640397/linked_in_profile</t>
   </si>
 </sst>
 </file>
@@ -422,10 +437,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1863,6 +1874,58 @@
       </c>
       <c r="I44" s="3">
         <v>45154</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45187</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="3">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="2">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45230</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="3">
+        <v>45239</v>
       </c>
     </row>
   </sheetData>
@@ -1911,8 +1974,10 @@
     <hyperlink ref="F42" r:id="rId39" xr:uid="{F92BB73A-4870-4463-9880-C0101089B75F}"/>
     <hyperlink ref="F43" r:id="rId40" xr:uid="{2200F868-1793-4044-8C8C-7509D9E3BC95}"/>
     <hyperlink ref="F44" r:id="rId41" xr:uid="{11373B3D-3505-4571-ACA3-186EAFF6C80D}"/>
+    <hyperlink ref="F46" r:id="rId42" xr:uid="{61BDC9B9-2D2F-42FD-A6A5-B4B8EF9DF595}"/>
+    <hyperlink ref="F45" r:id="rId43" xr:uid="{74FD30AE-E78C-4415-8107-09DCF86F78D4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/certificates and licenses/Control/Control.xlsx
+++ b/certificates and licenses/Control/Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/licenses-and-certificates/certificates and licenses/Control/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\Github\licenses-and-certificates\certificates and licenses\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AAD4F67-E2E4-4978-BE7C-FF1F63E6A982}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073E4EB2-00C6-4CC6-9574-3B6F6D86B292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>https://www.credly.com/badges/38cdec31-4934-47a5-8da4-a51b01640397/linked_in_profile</t>
+  </si>
+  <si>
+    <t>Governança de Dados - Master Practitioner</t>
+  </si>
+  <si>
+    <t>https://github.com/Phelipe-Sempreboni/licenses-and-certificates/certificado.pdf</t>
+  </si>
+  <si>
+    <t>Carlos Caldo Des. Profissional e Pessoal</t>
   </si>
 </sst>
 </file>
@@ -736,29 +745,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -784,7 +793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -810,7 +819,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -836,7 +845,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -862,7 +871,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -888,7 +897,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -914,7 +923,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -940,7 +949,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -966,7 +975,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -992,7 +1001,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1096,7 +1105,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1122,7 +1131,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1148,7 +1157,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1252,7 +1261,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1287,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1330,7 +1339,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1382,7 +1391,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1417,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1486,7 +1495,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1512,7 +1521,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1538,7 +1547,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1564,7 +1573,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1616,7 +1625,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1642,7 +1651,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1668,7 +1677,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1694,7 +1703,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -1720,7 +1729,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -1772,7 +1781,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -1798,7 +1807,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>65</v>
       </c>
@@ -1824,7 +1833,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>27</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>96</v>
       </c>
@@ -1902,7 +1911,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
@@ -1926,6 +1935,32 @@
       </c>
       <c r="I46" s="3">
         <v>45239</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="2">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3">
+        <v>45227</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="3">
+        <v>45227</v>
       </c>
     </row>
   </sheetData>
@@ -1976,8 +2011,9 @@
     <hyperlink ref="F44" r:id="rId41" xr:uid="{11373B3D-3505-4571-ACA3-186EAFF6C80D}"/>
     <hyperlink ref="F46" r:id="rId42" xr:uid="{61BDC9B9-2D2F-42FD-A6A5-B4B8EF9DF595}"/>
     <hyperlink ref="F45" r:id="rId43" xr:uid="{74FD30AE-E78C-4415-8107-09DCF86F78D4}"/>
+    <hyperlink ref="F47" r:id="rId44" xr:uid="{D45705A3-046C-41D5-8586-11372C6D932B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
--- a/certificates and licenses/Control/Control.xlsx
+++ b/certificates and licenses/Control/Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\Github\licenses-and-certificates\certificates and licenses\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073E4EB2-00C6-4CC6-9574-3B6F6D86B292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53ED8F8-C203-4881-81B6-4BB99609F67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="119">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -350,6 +350,51 @@
   </si>
   <si>
     <t>Carlos Caldo Des. Profissional e Pessoal</t>
+  </si>
+  <si>
+    <t>Profissão Tech Lead: conhecendo a liderança técnica</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/b4882cf7-e886-4d1a-9417-de87ff89c175</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/571c0932-5061-4d7f-b53d-09c2f76858c8</t>
+  </si>
+  <si>
+    <t>Tech Lead: construindo práticas e rotinas de gestão</t>
+  </si>
+  <si>
+    <t>Associate - Analytics Engineering</t>
+  </si>
+  <si>
+    <t>https://www.brasilopenbadge.com.br/pages/badge/3311e6c17d9fcdf84d373e5da3ce2a65</t>
+  </si>
+  <si>
+    <t>Associate - Data Engineering</t>
+  </si>
+  <si>
+    <t>https://www.brasilopenbadge.com.br/pages/badge/1fafe09f5628c62e818a3d9a087f0900</t>
+  </si>
+  <si>
+    <t>Associate - Data Products</t>
+  </si>
+  <si>
+    <t>https://www.brasilopenbadge.com.br/pages/badge/3d69d5de91ef2bbb4ec8250cbf8ae683</t>
+  </si>
+  <si>
+    <t>Itaú (Open Badge)</t>
+  </si>
+  <si>
+    <t>Practitioner - Leadership D&amp;A</t>
+  </si>
+  <si>
+    <t>https://www.brasilopenbadge.com.br/pages/badge/e17f9d75f578a8ce0a61fa828c58fb6f</t>
+  </si>
+  <si>
+    <t>Practitioner - D&amp;A Foundation</t>
+  </si>
+  <si>
+    <t>https://www.brasilopenbadge.com.br/pages/badge/40f0aa1466bebed764160dd312179df2</t>
   </si>
 </sst>
 </file>
@@ -449,9 +494,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -489,7 +534,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -595,7 +640,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -737,7 +782,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -745,29 +790,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -793,7 +838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -819,7 +864,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -845,7 +890,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -871,7 +916,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -897,7 +942,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -923,7 +968,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -949,7 +994,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -975,7 +1020,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1001,7 +1046,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1027,7 +1072,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1053,7 +1098,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1079,7 +1124,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1105,7 +1150,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1131,7 +1176,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1157,7 +1202,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1228,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1209,7 +1254,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1235,7 +1280,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1261,7 +1306,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1332,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1313,7 +1358,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1339,7 +1384,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1365,7 +1410,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1391,7 +1436,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1417,7 +1462,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1443,7 +1488,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1469,7 +1514,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1495,7 +1540,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1521,7 +1566,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1547,7 +1592,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1573,7 +1618,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1599,7 +1644,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1625,7 +1670,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1651,7 +1696,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1677,7 +1722,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1703,7 +1748,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -1729,7 +1774,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -1755,7 +1800,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -1781,7 +1826,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -1807,21 +1852,21 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D42" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>45078</v>
+        <v>44981</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>28</v>
@@ -1830,137 +1875,319 @@
         <v>28</v>
       </c>
       <c r="I42" s="3">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D43" s="2">
         <v>8</v>
       </c>
       <c r="E43" s="3">
+        <v>45104</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="3">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="2">
+        <v>24</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45078</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="3">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="2">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
         <v>45151</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="G45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="3">
         <v>45151</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="2" t="s">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D46" s="2">
         <v>10</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E46" s="3">
         <v>45154</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="G46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="3">
         <v>45154</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D47" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E47" s="3">
         <v>45187</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="G47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="3">
         <v>45239</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D48" s="2">
         <v>8</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E48" s="3">
         <v>45230</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="G48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="3">
         <v>45239</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D49" s="2">
         <v>24</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E49" s="3">
         <v>45227</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="G49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="3">
         <v>45227</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="2">
+        <v>12</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45322</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="3">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="2">
+        <v>12</v>
+      </c>
+      <c r="E51" s="3">
+        <v>45322</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="3">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45322</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="3">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="2">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45388</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="3">
+        <v>45388</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="2">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45388</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="3">
+        <v>45388</v>
       </c>
     </row>
   </sheetData>
@@ -2006,14 +2233,21 @@
     <hyperlink ref="F39" r:id="rId36" xr:uid="{24F14443-B5D3-497F-BB68-8932122C254B}"/>
     <hyperlink ref="F40" r:id="rId37" xr:uid="{3985EAEF-2E26-43A4-9767-4810C4F509AE}"/>
     <hyperlink ref="F41" r:id="rId38" xr:uid="{5EC806D4-4D6E-450F-B830-77F86AAB44F6}"/>
-    <hyperlink ref="F42" r:id="rId39" xr:uid="{F92BB73A-4870-4463-9880-C0101089B75F}"/>
-    <hyperlink ref="F43" r:id="rId40" xr:uid="{2200F868-1793-4044-8C8C-7509D9E3BC95}"/>
-    <hyperlink ref="F44" r:id="rId41" xr:uid="{11373B3D-3505-4571-ACA3-186EAFF6C80D}"/>
-    <hyperlink ref="F46" r:id="rId42" xr:uid="{61BDC9B9-2D2F-42FD-A6A5-B4B8EF9DF595}"/>
-    <hyperlink ref="F45" r:id="rId43" xr:uid="{74FD30AE-E78C-4415-8107-09DCF86F78D4}"/>
-    <hyperlink ref="F47" r:id="rId44" xr:uid="{D45705A3-046C-41D5-8586-11372C6D932B}"/>
+    <hyperlink ref="F44" r:id="rId39" xr:uid="{F92BB73A-4870-4463-9880-C0101089B75F}"/>
+    <hyperlink ref="F45" r:id="rId40" xr:uid="{2200F868-1793-4044-8C8C-7509D9E3BC95}"/>
+    <hyperlink ref="F46" r:id="rId41" xr:uid="{11373B3D-3505-4571-ACA3-186EAFF6C80D}"/>
+    <hyperlink ref="F48" r:id="rId42" xr:uid="{61BDC9B9-2D2F-42FD-A6A5-B4B8EF9DF595}"/>
+    <hyperlink ref="F47" r:id="rId43" xr:uid="{74FD30AE-E78C-4415-8107-09DCF86F78D4}"/>
+    <hyperlink ref="F49" r:id="rId44" xr:uid="{D45705A3-046C-41D5-8586-11372C6D932B}"/>
+    <hyperlink ref="F54" r:id="rId45" xr:uid="{BEE4A3C8-22E0-46D9-BEFF-1F0599BFF30C}"/>
+    <hyperlink ref="F53" r:id="rId46" xr:uid="{E93F6058-3102-442A-AF31-89FB6C967E95}"/>
+    <hyperlink ref="F50" r:id="rId47" xr:uid="{AAD584B6-B733-4A13-8CA0-3C2D93B77350}"/>
+    <hyperlink ref="F51" r:id="rId48" xr:uid="{31EAD665-6BB1-4A57-8DA4-828A856CB309}"/>
+    <hyperlink ref="F52" r:id="rId49" xr:uid="{8F644EFB-2A2A-4E80-AEDD-AC437938F2CE}"/>
+    <hyperlink ref="F42" r:id="rId50" xr:uid="{21C198E4-54BF-494C-94E0-937F7C6B2700}"/>
+    <hyperlink ref="F43" r:id="rId51" xr:uid="{A6F54A28-C025-4F41-BC45-1EB9655468E0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
--- a/certificates and licenses/Control/Control.xlsx
+++ b/certificates and licenses/Control/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\Github\licenses-and-certificates\certificates and licenses\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53ED8F8-C203-4881-81B6-4BB99609F67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F2E518-D5CA-47DB-A188-C95EFCF214E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="123">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -395,6 +395,18 @@
   </si>
   <si>
     <t>https://www.brasilopenbadge.com.br/pages/badge/40f0aa1466bebed764160dd312179df2</t>
+  </si>
+  <si>
+    <t>Princípios Solid</t>
+  </si>
+  <si>
+    <t>Solid - Os 5 princípios para as boas práticas da poo</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-4eb89c41-3818-490e-b89a-187892116d95/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-e1043397-b979-4e46-a6b8-0d150585b91d/</t>
   </si>
 </sst>
 </file>
@@ -790,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2188,6 +2200,58 @@
       </c>
       <c r="I54" s="3">
         <v>45388</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45389</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="3">
+        <v>45389</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="2">
+        <v>6</v>
+      </c>
+      <c r="E56" s="3">
+        <v>45395</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="3">
+        <v>45395</v>
       </c>
     </row>
   </sheetData>
@@ -2246,8 +2310,10 @@
     <hyperlink ref="F52" r:id="rId49" xr:uid="{8F644EFB-2A2A-4E80-AEDD-AC437938F2CE}"/>
     <hyperlink ref="F42" r:id="rId50" xr:uid="{21C198E4-54BF-494C-94E0-937F7C6B2700}"/>
     <hyperlink ref="F43" r:id="rId51" xr:uid="{A6F54A28-C025-4F41-BC45-1EB9655468E0}"/>
+    <hyperlink ref="F55" r:id="rId52" xr:uid="{52E5D608-7812-4EAC-9847-E54CFF0A5C61}"/>
+    <hyperlink ref="F56" r:id="rId53" xr:uid="{5A8046BA-251C-4A4A-BF2F-B540D4A3BDC9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
--- a/certificates and licenses/Control/Control.xlsx
+++ b/certificates and licenses/Control/Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\Github\licenses-and-certificates\certificates and licenses\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F2E518-D5CA-47DB-A188-C95EFCF214E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1599E78-B08B-4D59-B993-99628CF371A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="127">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -407,6 +407,18 @@
   </si>
   <si>
     <t>https://www.udemy.com/certificate/UC-e1043397-b979-4e46-a6b8-0d150585b91d/</t>
+  </si>
+  <si>
+    <t>Tech Lead: gerindo pessoas e guiando para alta performance</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/e508164a-de88-4a37-b2a4-7d515865e5ff</t>
+  </si>
+  <si>
+    <t>Storytelling: visão de negócios e desenvolvimento pessoal</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/432decf7-933b-4c14-9ee7-7560b4078e30</t>
   </si>
 </sst>
 </file>
@@ -481,12 +493,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -802,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2252,6 +2265,58 @@
       </c>
       <c r="I56" s="3">
         <v>45395</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="2">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45396</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="3">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="2">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>45396</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="3">
+        <v>45396</v>
       </c>
     </row>
   </sheetData>
@@ -2312,8 +2377,10 @@
     <hyperlink ref="F43" r:id="rId51" xr:uid="{A6F54A28-C025-4F41-BC45-1EB9655468E0}"/>
     <hyperlink ref="F55" r:id="rId52" xr:uid="{52E5D608-7812-4EAC-9847-E54CFF0A5C61}"/>
     <hyperlink ref="F56" r:id="rId53" xr:uid="{5A8046BA-251C-4A4A-BF2F-B540D4A3BDC9}"/>
+    <hyperlink ref="F58" r:id="rId54" xr:uid="{981E0DF0-8465-41E3-A9D9-A5CEE4716D22}"/>
+    <hyperlink ref="F57" r:id="rId55" xr:uid="{58A820BC-D210-458D-94F6-500AC8C19D41}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
--- a/certificates and licenses/Control/Control.xlsx
+++ b/certificates and licenses/Control/Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\Github\licenses-and-certificates\certificates and licenses\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1599E78-B08B-4D59-B993-99628CF371A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE25F4E-A72B-4E7E-8650-D07B6E786C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="135">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -419,6 +419,30 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/432decf7-933b-4c14-9ee7-7560b4078e30</t>
+  </si>
+  <si>
+    <t>Git e GitHub: compartilhando e colaborando em projetos</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/3243a972-8425-49c5-aa70-3cb1141f23b1</t>
+  </si>
+  <si>
+    <t>Git e Github: controle e compartilhe seu código</t>
+  </si>
+  <si>
+    <t>Git e GitHub: repositório, commit e versões</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/241bd285-12ed-4777-9175-2170a20e344d</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/295511c8-6c4d-4c2f-a0b6-6f51d8146266</t>
+  </si>
+  <si>
+    <t>Git e GitHub: dominando controle de versão de código</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/5f770eb3-4d2b-4f8c-9ef3-2aee95aa636a</t>
   </si>
 </sst>
 </file>
@@ -493,13 +517,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -815,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2267,7 +2290,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2280,7 +2303,7 @@
       <c r="E57" s="3">
         <v>45396</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -2293,7 +2316,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2306,7 +2329,7 @@
       <c r="E58" s="3">
         <v>45396</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -2317,6 +2340,110 @@
       </c>
       <c r="I58" s="3">
         <v>45396</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="2">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45397</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="3">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="2">
+        <v>6</v>
+      </c>
+      <c r="E60" s="3">
+        <v>45397</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="3">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="2">
+        <v>8</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45397</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="3">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="2">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45397</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="3">
+        <v>45397</v>
       </c>
     </row>
   </sheetData>
@@ -2379,8 +2506,12 @@
     <hyperlink ref="F56" r:id="rId53" xr:uid="{5A8046BA-251C-4A4A-BF2F-B540D4A3BDC9}"/>
     <hyperlink ref="F58" r:id="rId54" xr:uid="{981E0DF0-8465-41E3-A9D9-A5CEE4716D22}"/>
     <hyperlink ref="F57" r:id="rId55" xr:uid="{58A820BC-D210-458D-94F6-500AC8C19D41}"/>
+    <hyperlink ref="F59" r:id="rId56" xr:uid="{A9454E4B-0BE7-4ED1-BD8B-6AD9D1F3636B}"/>
+    <hyperlink ref="F60" r:id="rId57" xr:uid="{2DDE640F-8C21-4C4E-9ED3-C8F1BD200D89}"/>
+    <hyperlink ref="F61" r:id="rId58" xr:uid="{0AFE3FE2-94DF-4EB8-B4F8-12EC55631F98}"/>
+    <hyperlink ref="F62" r:id="rId59" xr:uid="{4A96738B-C66F-46CA-84DA-902B4C5E7E66}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
--- a/certificates and licenses/Control/Control.xlsx
+++ b/certificates and licenses/Control/Control.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\Github\licenses-and-certificates\certificates and licenses\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE25F4E-A72B-4E7E-8650-D07B6E786C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DA734D-4565-48C6-85AB-98279EB9BFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Control!$B$2:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Control!$B$2:$I$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="139">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -443,6 +443,18 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/5f770eb3-4d2b-4f8c-9ef3-2aee95aa636a</t>
+  </si>
+  <si>
+    <t>Tech Lead: desenvolvendo habilidades de comunicação</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/b7cc88da-dc0b-4d72-b440-3a3665498d03</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/dba4d6f7-7e1d-4af3-bc72-a35756ec0793</t>
+  </si>
+  <si>
+    <t>Spark: apresentando a ferramenta</t>
   </si>
 </sst>
 </file>
@@ -838,29 +850,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -886,7 +898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -912,7 +924,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -938,7 +950,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -964,7 +976,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1016,7 +1028,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1054,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1094,7 +1106,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1120,7 +1132,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1198,7 +1210,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1224,7 +1236,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1262,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1276,7 +1288,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1302,7 +1314,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1328,7 +1340,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1354,7 +1366,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1380,7 +1392,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1406,7 +1418,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1432,7 +1444,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1484,7 +1496,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1536,7 +1548,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1562,7 +1574,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1588,7 +1600,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1640,7 +1652,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1666,7 +1678,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1692,7 +1704,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1744,7 +1756,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -1822,7 +1834,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -1848,7 +1860,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -1874,7 +1886,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -1900,7 +1912,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>114</v>
       </c>
@@ -1926,7 +1938,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>114</v>
       </c>
@@ -1952,7 +1964,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -1978,7 +1990,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2004,7 +2016,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2030,7 +2042,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2056,7 +2068,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2082,7 +2094,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>114</v>
       </c>
@@ -2134,7 +2146,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>114</v>
       </c>
@@ -2160,7 +2172,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>114</v>
       </c>
@@ -2186,7 +2198,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2212,7 +2224,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2238,7 +2250,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2290,7 +2302,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2342,7 +2354,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2368,7 +2380,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2394,7 +2406,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2420,7 +2432,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
@@ -2446,7 +2458,60 @@
         <v>45397</v>
       </c>
     </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="2">
+        <v>8</v>
+      </c>
+      <c r="E63" s="3">
+        <v>45400</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="3">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="2">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3">
+        <v>45403</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" s="3">
+        <v>45403</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B2:I62" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I37">
     <sortCondition ref="E2:E37"/>
   </sortState>
@@ -2510,8 +2575,10 @@
     <hyperlink ref="F60" r:id="rId57" xr:uid="{2DDE640F-8C21-4C4E-9ED3-C8F1BD200D89}"/>
     <hyperlink ref="F61" r:id="rId58" xr:uid="{0AFE3FE2-94DF-4EB8-B4F8-12EC55631F98}"/>
     <hyperlink ref="F62" r:id="rId59" xr:uid="{4A96738B-C66F-46CA-84DA-902B4C5E7E66}"/>
+    <hyperlink ref="F63" r:id="rId60" xr:uid="{C3FE1613-6A8A-4076-93AE-2FE719C9E1F4}"/>
+    <hyperlink ref="F64" r:id="rId61" xr:uid="{59709705-CCC7-40DB-9824-FB35FC74DA1B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
--- a/certificates and licenses/Control/Control.xlsx
+++ b/certificates and licenses/Control/Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\Github\licenses-and-certificates\certificates and licenses\Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\licenses-and-certificates\certificates and licenses\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DA734D-4565-48C6-85AB-98279EB9BFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3393623-5B61-46AF-84ED-5CD7F7362B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="141">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t>Spark: apresentando a ferramenta</t>
+  </si>
+  <si>
+    <t>Databricks: conhecendo a ferramenta</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/f151e8d4-1a19-46ae-b002-ac909dafd7fd</t>
   </si>
 </sst>
 </file>
@@ -850,29 +856,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -898,7 +904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -924,7 +930,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -950,7 +956,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -976,7 +982,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -1860,7 +1866,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>114</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>114</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>114</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>114</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>114</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2406,7 +2412,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2508,6 +2514,32 @@
       </c>
       <c r="I64" s="3">
         <v>45403</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="2">
+        <v>8</v>
+      </c>
+      <c r="E65" s="3">
+        <v>45435</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="3">
+        <v>45435</v>
       </c>
     </row>
   </sheetData>
@@ -2577,8 +2609,9 @@
     <hyperlink ref="F62" r:id="rId59" xr:uid="{4A96738B-C66F-46CA-84DA-902B4C5E7E66}"/>
     <hyperlink ref="F63" r:id="rId60" xr:uid="{C3FE1613-6A8A-4076-93AE-2FE719C9E1F4}"/>
     <hyperlink ref="F64" r:id="rId61" xr:uid="{59709705-CCC7-40DB-9824-FB35FC74DA1B}"/>
+    <hyperlink ref="F65" r:id="rId62" xr:uid="{2272C9B4-4C82-44CD-AC14-1F52CE0567E7}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
--- a/certificates and licenses/Control/Control.xlsx
+++ b/certificates and licenses/Control/Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\licenses-and-certificates\certificates and licenses\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3393623-5B61-46AF-84ED-5CD7F7362B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC50EC24-8DF3-4848-B539-7995E6D54B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="145">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -461,6 +461,18 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/f151e8d4-1a19-46ae-b002-ac909dafd7fd</t>
+  </si>
+  <si>
+    <t>Data Mesh: gerenciando controle e dependências</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/64784763-4b18-4898-980e-03994b6a12c6</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/17662297-583e-42bd-9c2c-b4d8c266e67c</t>
+  </si>
+  <si>
+    <t>Data Mesh: infraestrutura e planos</t>
   </si>
 </sst>
 </file>
@@ -856,29 +868,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -904,7 +916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -930,7 +942,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -956,7 +968,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -982,7 +994,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1060,7 +1072,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1112,7 +1124,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1138,7 +1150,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1190,7 +1202,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1216,7 +1228,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1242,7 +1254,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1268,7 +1280,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1294,7 +1306,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1320,7 +1332,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1346,7 +1358,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1424,7 +1436,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1450,7 +1462,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1476,7 +1488,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1502,7 +1514,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1528,7 +1540,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1554,7 +1566,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1618,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1632,7 +1644,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1658,7 +1670,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1710,7 +1722,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1736,7 +1748,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1762,7 +1774,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1814,7 +1826,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -1840,7 +1852,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -1866,7 +1878,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -1892,7 +1904,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -1918,7 +1930,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>114</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>114</v>
       </c>
@@ -1970,7 +1982,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -1996,7 +2008,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2048,7 +2060,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2074,7 +2086,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2100,7 +2112,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
@@ -2126,7 +2138,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>114</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>114</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>114</v>
       </c>
@@ -2204,7 +2216,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2230,7 +2242,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2256,7 +2268,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2282,7 +2294,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2308,7 +2320,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2334,7 +2346,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2360,7 +2372,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2412,7 +2424,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2438,7 +2450,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
@@ -2464,7 +2476,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2490,7 +2502,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2516,7 +2528,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
@@ -2540,6 +2552,58 @@
       </c>
       <c r="I65" s="3">
         <v>45435</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="2">
+        <v>6</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45440</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="3">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="2">
+        <v>6</v>
+      </c>
+      <c r="E67" s="3">
+        <v>45440</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="3">
+        <v>45440</v>
       </c>
     </row>
   </sheetData>
@@ -2610,8 +2674,10 @@
     <hyperlink ref="F63" r:id="rId60" xr:uid="{C3FE1613-6A8A-4076-93AE-2FE719C9E1F4}"/>
     <hyperlink ref="F64" r:id="rId61" xr:uid="{59709705-CCC7-40DB-9824-FB35FC74DA1B}"/>
     <hyperlink ref="F65" r:id="rId62" xr:uid="{2272C9B4-4C82-44CD-AC14-1F52CE0567E7}"/>
+    <hyperlink ref="F66" r:id="rId63" xr:uid="{C309092C-9E03-40F1-B088-E727AECF9472}"/>
+    <hyperlink ref="F67" r:id="rId64" xr:uid="{341D9379-7D22-4312-B0F3-1AE58A2C88EA}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
--- a/certificates and licenses/Control/Control.xlsx
+++ b/certificates and licenses/Control/Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\licenses-and-certificates\certificates and licenses\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC50EC24-8DF3-4848-B539-7995E6D54B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2138C861-BD85-4782-AFBB-B003757142E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="147">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -473,6 +473,12 @@
   </si>
   <si>
     <t>Data Mesh: infraestrutura e planos</t>
+  </si>
+  <si>
+    <t>CS Treina</t>
+  </si>
+  <si>
+    <t>Governança de Dados, MDM e Qualidade de Dados com LGPD</t>
   </si>
 </sst>
 </file>
@@ -868,29 +874,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -916,7 +922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -942,7 +948,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -968,7 +974,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1306,7 +1312,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1410,7 +1416,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1436,7 +1442,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1488,7 +1494,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>114</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>114</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>114</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>114</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>114</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2320,7 +2326,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
@@ -2346,7 +2352,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>27</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>27</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2450,7 +2456,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>27</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2604,6 +2610,30 @@
       </c>
       <c r="I67" s="3">
         <v>45440</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="2">
+        <v>12</v>
+      </c>
+      <c r="E68" s="3">
+        <v>45441</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" s="3">
+        <v>45441</v>
       </c>
     </row>
   </sheetData>

--- a/certificates and licenses/Control/Control.xlsx
+++ b/certificates and licenses/Control/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\github\licenses-and-certificates\certificates and licenses\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2138C861-BD85-4782-AFBB-B003757142E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D57859-2C65-42D4-A61B-346534381186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="148">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>Governança de Dados, MDM e Qualidade de Dados com LGPD</t>
+  </si>
+  <si>
+    <t>https://github.com/Phelipe-Sempreboni/licenses-and-certificates/blob/main/certificates%20and%20licenses/CS%20Treina/Governan%C3%A7a%2C%20MDM%20e%20Qual.%20de%20Dados%20com%20LGPD/certificado.pdf</t>
   </si>
 </sst>
 </file>
@@ -876,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2625,7 +2628,9 @@
       <c r="E68" s="3">
         <v>45441</v>
       </c>
-      <c r="F68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="G68" s="2" t="s">
         <v>28</v>
       </c>
@@ -2706,8 +2711,9 @@
     <hyperlink ref="F65" r:id="rId62" xr:uid="{2272C9B4-4C82-44CD-AC14-1F52CE0567E7}"/>
     <hyperlink ref="F66" r:id="rId63" xr:uid="{C309092C-9E03-40F1-B088-E727AECF9472}"/>
     <hyperlink ref="F67" r:id="rId64" xr:uid="{341D9379-7D22-4312-B0F3-1AE58A2C88EA}"/>
+    <hyperlink ref="F68" r:id="rId65" xr:uid="{10CC71D6-CF99-4C08-A3D2-85ADF1B347D1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>